--- a/irena_cap_summary.xlsx
+++ b/irena_cap_summary.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Mixed Hydro Plants" sheetId="1" r:id="rId1"/>
-    <sheet name="Offshore wind energy" sheetId="2" r:id="rId2"/>
-    <sheet name="Onshore wind energy" sheetId="3" r:id="rId3"/>
-    <sheet name="Pumped storage" sheetId="4" r:id="rId4"/>
-    <sheet name="Concentrated solar power" sheetId="5" r:id="rId5"/>
-    <sheet name="Renewable hydropower" sheetId="6" r:id="rId6"/>
-    <sheet name="Solar photovoltaic" sheetId="7" r:id="rId7"/>
+    <sheet name="Solar photovoltaic" sheetId="1" r:id="rId1"/>
+    <sheet name="Pumped storage" sheetId="2" r:id="rId2"/>
+    <sheet name="Renewable hydropower" sheetId="3" r:id="rId3"/>
+    <sheet name="Onshore wind energy" sheetId="4" r:id="rId4"/>
+    <sheet name="Mixed Hydro Plants" sheetId="5" r:id="rId5"/>
+    <sheet name="Concentrated solar power" sheetId="6" r:id="rId6"/>
+    <sheet name="Offshore wind energy" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -492,7 +492,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>3937</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -503,7 +503,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>27.63000000000011</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -514,7 +514,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>827.8900000000003</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -525,7 +525,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>400.8699999999999</v>
+        <v>848.28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -536,7 +536,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>812.8899999999994</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -558,7 +558,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -569,7 +569,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1004.6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -580,7 +580,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -591,7 +591,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2514.8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -602,7 +602,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -624,7 +624,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -635,7 +635,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -646,7 +646,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>43.95000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -657,7 +657,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -668,7 +668,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -679,7 +679,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -690,7 +690,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0.3000000000000114</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -701,7 +701,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>-5.900000000000034</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -712,7 +712,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -734,7 +734,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1726.41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -745,7 +745,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>346.4200000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -767,7 +767,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -778,7 +778,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -789,7 +789,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -800,7 +800,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>775.11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -811,7 +811,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>517.89</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -844,7 +844,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -855,7 +855,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -866,7 +866,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -877,7 +877,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -888,7 +888,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -899,7 +899,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -910,7 +910,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -921,7 +921,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>5651</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -943,7 +943,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>-130</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -954,7 +954,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>-60</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -965,7 +965,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>-52.36999999999989</v>
+        <v>6093.52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -976,7 +976,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>85.59999999999945</v>
+        <v>4586.93</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -987,7 +987,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>745</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -998,7 +998,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>331</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1009,7 +1009,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>79</v>
+        <v>15948</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>21218</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1031,7 +1031,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>-27</v>
+        <v>14559</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1042,7 +1042,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1053,7 +1053,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1064,7 +1064,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1075,7 +1075,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1130,7 +1130,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1174,7 +1174,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1185,7 +1185,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1196,7 +1196,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>37.84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>3001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>145</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>441</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>23</v>
+        <v>15309</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>-306.3899999999999</v>
+        <v>2693.279999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1383,7 +1383,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>5.870000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>86.81999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>78.47000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1427,7 +1427,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>8687</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>1360</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>-33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1504,7 +1504,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>107</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>-23</v>
+        <v>136.7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1559,7 +1559,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>107.78</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>-0.05000000000001137</v>
+        <v>3827.96</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1592,7 +1592,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>431.9000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>673.0999999999999</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>1042.4</v>
+        <v>578.4400000000001</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>279</v>
+        <v>1325.9</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>-0.75</v>
+        <v>60.71000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1735,7 +1735,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>514</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>59.89999999999998</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1801,7 +1801,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>2935</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>-176</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>-124</v>
+        <v>831</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>303</v>
+        <v>7081.01</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>99</v>
+        <v>1313.15</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>9288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>-107</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1966,7 +1966,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>1467</v>
+        <v>1549.25</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2056,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2078,7 +2078,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>196.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2089,7 +2089,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>515.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2100,7 +2100,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>1541.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2111,7 +2111,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>864</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2221,7 +2221,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2232,7 +2232,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2254,7 +2254,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2276,7 +2276,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>49.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2287,7 +2287,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>373.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2298,7 +2298,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>444.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>403.1999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2320,7 +2320,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>429.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2408,7 +2408,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>26.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2419,7 +2419,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>5.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2441,7 +2441,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1727.66</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2485,7 +2485,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>0.03999999999996362</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2496,7 +2496,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2507,7 +2507,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>701</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2518,7 +2518,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2529,7 +2529,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>3203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2540,7 +2540,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>4464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2672,7 +2672,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>25.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2694,7 +2694,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>3940.38</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>760</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2914,7 +2914,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2958,7 +2958,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2969,7 +2969,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2980,7 +2980,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>2143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3013,7 +3013,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>2.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3057,7 +3057,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3134,7 +3134,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3145,7 +3145,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3178,7 +3178,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3211,7 +3211,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3222,7 +3222,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3288,7 +3288,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3321,7 +3321,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3332,7 +3332,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3343,7 +3343,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3354,7 +3354,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>831</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3365,7 +3365,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3376,7 +3376,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3387,7 +3387,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3398,7 +3398,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3420,7 +3420,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3431,7 +3431,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3453,7 +3453,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3464,7 +3464,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3475,7 +3475,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +3510,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3521,7 +3521,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>775.22</v>
+        <v>158.4099999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3532,7 +3532,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>190.61</v>
+        <v>267.9200000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3543,7 +3543,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>1472.9</v>
+        <v>353.9400000000005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3554,7 +3554,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>735.3899999999999</v>
+        <v>684.5599999999995</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3576,7 +3576,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>153</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3587,7 +3587,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>548.5</v>
+        <v>1.900000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3598,7 +3598,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>748.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3609,7 +3609,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>973.8200000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3620,7 +3620,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3631,7 +3631,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>968</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3642,7 +3642,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>211</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3664,7 +3664,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>4.120000000000005</v>
+        <v>159.3499999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3686,7 +3686,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3697,7 +3697,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3708,7 +3708,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>339</v>
+        <v>65.79999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3719,7 +3719,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>370.3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3730,7 +3730,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>952</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3741,7 +3741,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3752,7 +3752,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>191</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3774,7 +3774,7 @@
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>58.41000000000003</v>
+        <v>1.710000000000036</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>2340.07</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3796,7 +3796,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>364.4199999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>229.4900000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3818,7 +3818,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>871.9400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3829,7 +3829,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>728.2399999999998</v>
+        <v>0.3799999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3840,7 +3840,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3851,7 +3851,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3862,7 +3862,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3895,7 +3895,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3906,7 +3906,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>44</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3917,7 +3917,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>88.69999999999999</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3928,7 +3928,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>802.3</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3939,7 +3939,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>1428.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3950,7 +3950,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>38</v>
+        <v>17646</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>652</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>5222</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3983,7 +3983,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>4386.18</v>
+        <v>259.5400000000009</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>7081.669999999998</v>
+        <v>259.3099999999977</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4005,7 +4005,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>6095</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4016,7 +4016,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>12153</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4027,7 +4027,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>8575</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4038,7 +4038,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>14474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4049,7 +4049,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>13140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4060,7 +4060,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>226</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4071,7 +4071,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>265</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>807</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4093,7 +4093,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>793</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>2022</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4115,7 +4115,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4126,7 +4126,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4137,7 +4137,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>276</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4148,7 +4148,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4159,7 +4159,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>-6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4170,7 +4170,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>116.5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4181,7 +4181,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>351.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4192,7 +4192,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>897.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4203,7 +4203,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>1060.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>1848.71</v>
+        <v>0.2299999999999898</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4225,7 +4225,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>363</v>
+        <v>13389</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4236,7 +4236,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>1272</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4247,7 +4247,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>4159</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4258,7 +4258,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>3343</v>
+        <v>652</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4269,7 +4269,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>1702.459999999999</v>
+        <v>576.1000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4280,7 +4280,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4291,7 +4291,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4302,7 +4302,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>38.17</v>
+        <v>10.69000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4324,7 +4324,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>9.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4335,7 +4335,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4346,7 +4346,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4357,7 +4357,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4368,7 +4368,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4379,7 +4379,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4390,7 +4390,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4401,7 +4401,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>20.9</v>
+        <v>0.7800000000000011</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4412,7 +4412,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>8.829999999999998</v>
+        <v>0.1900000000000048</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4423,7 +4423,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>20.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4434,7 +4434,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>102.21</v>
+        <v>0.1999999999999957</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4445,7 +4445,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>447</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4456,7 +4456,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4467,7 +4467,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4478,7 +4478,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>1025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4489,7 +4489,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>1066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4500,7 +4500,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>13</v>
+        <v>26766</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4511,7 +4511,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>252</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>157.7</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>442.0000000000001</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4544,7 +4544,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>3110</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4555,7 +4555,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>509</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4566,7 +4566,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>117</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4577,7 +4577,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>987</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4588,7 +4588,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>3778</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4599,7 +4599,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>1380.69</v>
+        <v>12.50999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4610,7 +4610,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>83</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4621,7 +4621,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>981</v>
+        <v>50.09999999999991</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4632,7 +4632,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>2732</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>1138.84</v>
+        <v>388.9000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4654,7 +4654,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>278.9099999999999</v>
+        <v>51.59000000000015</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4665,7 +4665,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4676,7 +4676,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4687,7 +4687,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>388</v>
+        <v>25.44999999999982</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4698,7 +4698,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>2741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4709,7 +4709,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>-107.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4720,7 +4720,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4731,7 +4731,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4753,7 +4753,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4764,7 +4764,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>5.700000000000045</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4775,7 +4775,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>843</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4786,7 +4786,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4797,7 +4797,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4808,7 +4808,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4819,7 +4819,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>0.3499999999999996</v>
+        <v>55.72000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4830,7 +4830,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>2206</v>
+        <v>12607</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4841,7 +4841,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>7712</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4852,7 +4852,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>10775</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4863,7 +4863,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>2245</v>
+        <v>527.5599999999995</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4874,7 +4874,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>4145.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4885,7 +4885,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>196</v>
+        <v>16230</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4896,7 +4896,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4907,7 +4907,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>1354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4918,7 +4918,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>3752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4929,7 +4929,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>3879</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4940,7 +4940,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4951,7 +4951,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4962,7 +4962,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4973,7 +4973,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4984,7 +4984,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>27</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5019,7 +5019,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5030,7 +5030,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>775.22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5041,7 +5041,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>190.61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1472.9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5063,7 +5063,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>735.3899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5074,7 +5074,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>1310</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5085,7 +5085,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5096,7 +5096,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>548.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5107,7 +5107,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>748.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5118,7 +5118,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>973.8200000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5129,7 +5129,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5140,7 +5140,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5151,7 +5151,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5162,7 +5162,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5173,7 +5173,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>4.120000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5195,7 +5195,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5206,7 +5206,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5217,7 +5217,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5228,7 +5228,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>370.3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5239,7 +5239,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>1145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5250,7 +5250,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5261,7 +5261,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5283,7 +5283,7 @@
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>-0.5</v>
+        <v>58.41000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5294,7 +5294,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2340.07</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5305,7 +5305,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>364.4199999999996</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5316,7 +5316,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>229.4900000000002</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5327,7 +5327,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>871.9400000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5338,7 +5338,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>728.2399999999998</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5360,7 +5360,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5371,7 +5371,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5393,7 +5393,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>88.69999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>802.3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1428.2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>1857</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5470,7 +5470,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>-56</v>
+        <v>652</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5492,7 +5492,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>-80.33999999999992</v>
+        <v>4386.18</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5503,7 +5503,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>0.03999999999996362</v>
+        <v>7081.669999999998</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5514,7 +5514,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>4654</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5525,7 +5525,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>994</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5536,7 +5536,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>163</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5547,7 +5547,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-145</v>
+        <v>14474</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5558,7 +5558,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>-311</v>
+        <v>13140</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5569,7 +5569,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5580,7 +5580,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>807</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5602,7 +5602,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>793</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5613,7 +5613,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5635,7 +5635,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5646,7 +5646,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5657,7 +5657,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5679,7 +5679,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>292</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5690,7 +5690,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>-292</v>
+        <v>897.1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5712,7 +5712,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>292</v>
+        <v>1060.75</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5723,7 +5723,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1848.71</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5734,7 +5734,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>3956</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5745,7 +5745,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5756,7 +5756,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5767,7 +5767,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>25</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5778,7 +5778,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>-41.61999999999989</v>
+        <v>1702.459999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5789,7 +5789,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5800,7 +5800,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5811,7 +5811,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5822,7 +5822,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>38.17</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5833,7 +5833,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5844,7 +5844,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5855,7 +5855,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5866,7 +5866,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5877,7 +5877,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5888,7 +5888,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5899,7 +5899,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>1100</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5921,7 +5921,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>8.829999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5932,7 +5932,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>196</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5943,7 +5943,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>102.21</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5954,7 +5954,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5965,7 +5965,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5976,7 +5976,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>785</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5987,7 +5987,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5998,7 +5998,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6009,7 +6009,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6031,7 +6031,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>157.7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6042,7 +6042,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>442.0000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6053,7 +6053,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6064,7 +6064,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>1366</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6075,7 +6075,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6086,7 +6086,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>987</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6097,7 +6097,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6108,7 +6108,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>17</v>
+        <v>1380.69</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6119,7 +6119,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>981</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6141,7 +6141,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6152,7 +6152,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1138.84</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6163,7 +6163,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>278.9099999999999</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6185,7 +6185,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -6196,7 +6196,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>92</v>
+        <v>388</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -6207,7 +6207,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2633.52</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6218,7 +6218,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -6229,7 +6229,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -6240,7 +6240,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>181</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -6317,7 +6317,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.3499999999999996</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>2418</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6350,7 +6350,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>25</v>
+        <v>10775</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>831</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>41</v>
+        <v>4145.84</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>19</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>24</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>65</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>-9</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>-99</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>316</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6528,7 +6528,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6539,7 +6539,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>27.63000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>827.8900000000003</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6561,7 +6561,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>400.8699999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6572,7 +6572,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>812.8899999999994</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6638,7 +6638,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6693,7 +6693,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>275.4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6968,7 +6968,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>5408.63</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7012,7 +7012,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>85.59999999999945</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7023,7 +7023,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>745</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7034,7 +7034,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7045,7 +7045,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7078,7 +7078,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>699</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7243,7 +7243,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7254,7 +7254,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7265,7 +7265,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>4.72</v>
+        <v>157.6100000000001</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7276,7 +7276,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>1.350000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7518,7 +7518,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -7551,7 +7551,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -7573,7 +7573,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -7584,7 +7584,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -7595,7 +7595,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>2.949999999999989</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -7628,7 +7628,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>617</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -7639,7 +7639,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>431.9000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -7661,7 +7661,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>673.0999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -7672,7 +7672,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1042.4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -7716,7 +7716,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>278.25</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -7727,7 +7727,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -7848,7 +7848,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -7870,7 +7870,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -7881,7 +7881,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>1572.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -7892,7 +7892,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>-0.04999999999972715</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -7947,7 +7947,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -7958,7 +7958,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -7969,7 +7969,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -8002,7 +8002,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1467</v>
       </c>
     </row>
   </sheetData>
@@ -8037,7 +8037,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>7676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8048,7 +8048,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>158.4099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8059,7 +8059,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>267.9200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8070,7 +8070,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>353.9400000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8081,7 +8081,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>684.5599999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8092,7 +8092,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8103,7 +8103,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8114,7 +8114,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8125,7 +8125,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8136,7 +8136,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>-5.099999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8147,7 +8147,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8158,7 +8158,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8169,7 +8169,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8180,7 +8180,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8191,7 +8191,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>159.3499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8202,7 +8202,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>1788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8213,7 +8213,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8224,7 +8224,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8235,7 +8235,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>65.79999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8246,7 +8246,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8257,7 +8257,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8268,7 +8268,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8279,7 +8279,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8290,7 +8290,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8301,7 +8301,7 @@
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>1.710000000000036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8312,7 +8312,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8323,7 +8323,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8334,7 +8334,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>-1.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8345,7 +8345,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>-2.319999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8356,7 +8356,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.3799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8367,7 +8367,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8378,7 +8378,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8389,7 +8389,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8411,7 +8411,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8422,7 +8422,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>2882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8433,7 +8433,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8444,7 +8444,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8455,7 +8455,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8466,7 +8466,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>-8.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8477,7 +8477,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>17646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8488,7 +8488,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8499,7 +8499,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8510,7 +8510,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>259.5400000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8521,7 +8521,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>259.3099999999977</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8532,7 +8532,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>4086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8543,7 +8543,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8554,7 +8554,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>118</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8565,7 +8565,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8576,7 +8576,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>-197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8587,7 +8587,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>2373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8598,7 +8598,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8609,7 +8609,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8620,7 +8620,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8631,7 +8631,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8642,7 +8642,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8653,7 +8653,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8664,7 +8664,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8675,7 +8675,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8686,7 +8686,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8697,7 +8697,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8708,7 +8708,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8719,7 +8719,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8741,7 +8741,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>0.2299999999999898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8752,7 +8752,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>13389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8763,7 +8763,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8774,7 +8774,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>86</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8785,7 +8785,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>652</v>
+        <v>1.350000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8796,7 +8796,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>576.1000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8807,7 +8807,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>1513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -8818,7 +8818,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8829,7 +8829,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8840,7 +8840,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>11.69000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8851,7 +8851,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8862,7 +8862,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8873,7 +8873,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8884,7 +8884,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8895,7 +8895,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8917,7 +8917,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8928,7 +8928,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0.7800000000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8939,7 +8939,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0.230000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8950,7 +8950,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>-0.03999999999999915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -8961,7 +8961,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>0.1999999999999957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -8972,7 +8972,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -9027,7 +9027,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>26766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -9038,7 +9038,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -9049,7 +9049,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -9060,7 +9060,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>1572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -9071,7 +9071,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>1654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -9082,7 +9082,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -9093,7 +9093,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9104,7 +9104,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -9115,7 +9115,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -9126,7 +9126,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>12.50999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -9137,7 +9137,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>3918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -9148,7 +9148,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>50.09999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -9159,7 +9159,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -9170,7 +9170,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>388.9000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -9181,7 +9181,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>51.59000000000015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -9192,7 +9192,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>6120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -9203,7 +9203,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -9214,7 +9214,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -9225,7 +9225,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>-23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -9236,7 +9236,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>-44.55000000000018</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -9247,7 +9247,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>1685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -9258,7 +9258,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>-89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -9269,7 +9269,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -9280,7 +9280,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -9291,7 +9291,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>5.700000000000045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -9302,7 +9302,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -9313,7 +9313,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -9324,7 +9324,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -9335,7 +9335,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -9346,7 +9346,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>55.72000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -9357,7 +9357,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>12607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9368,7 +9368,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9379,7 +9379,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>466</v>
+        <v>732</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9390,7 +9390,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>811</v>
+        <v>1572.01</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9401,7 +9401,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>-283.4400000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -9412,7 +9412,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>16506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -9423,7 +9423,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>-204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -9434,7 +9434,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -9445,7 +9445,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>-394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -9456,7 +9456,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9467,7 +9467,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>3636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9478,7 +9478,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9489,7 +9489,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9500,7 +9500,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9511,7 +9511,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>230</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9546,7 +9546,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9557,7 +9557,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>16.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9568,7 +9568,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>67.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9579,7 +9579,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>848.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9590,7 +9590,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>1283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9612,7 +9612,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9623,7 +9623,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>1004.6</v>
+        <v>196.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9634,7 +9634,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2125</v>
+        <v>515.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9645,7 +9645,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>2514.8</v>
+        <v>1541.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9678,7 +9678,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9689,7 +9689,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>1004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9700,7 +9700,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>43.95000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9733,7 +9733,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9744,7 +9744,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>47.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9755,7 +9755,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9766,7 +9766,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9777,7 +9777,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9788,7 +9788,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>1726.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9799,7 +9799,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>347.9000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9810,7 +9810,7 @@
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>-1.480000000000018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9821,7 +9821,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9832,7 +9832,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>373.4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9843,7 +9843,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>444.5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9854,7 +9854,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>775.11</v>
+        <v>403.1999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9865,7 +9865,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>517.89</v>
+        <v>429.75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9898,7 +9898,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9909,7 +9909,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9920,7 +9920,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>123.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9931,7 +9931,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9942,7 +9942,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9953,7 +9953,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9964,7 +9964,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>5.699999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9975,7 +9975,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>374</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9986,7 +9986,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9997,7 +9997,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -10008,7 +10008,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>1031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -10019,7 +10019,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>6093.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -10030,7 +10030,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>4586.93</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -10041,7 +10041,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -10052,7 +10052,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>1942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -10063,7 +10063,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>15948</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -10074,7 +10074,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>21218</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -10085,7 +10085,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>14559</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -10107,7 +10107,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -10118,7 +10118,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -10129,7 +10129,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>2402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -10140,7 +10140,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -10173,7 +10173,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -10184,7 +10184,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -10195,7 +10195,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>1781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -10217,7 +10217,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -10228,7 +10228,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -10239,7 +10239,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>1.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -10250,7 +10250,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>37.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -10261,7 +10261,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -10272,7 +10272,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -10283,7 +10283,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>3558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -10294,7 +10294,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>15309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -10305,7 +10305,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>2693.279999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -10349,7 +10349,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -10360,7 +10360,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -10393,7 +10393,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -10404,7 +10404,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>68.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -10415,7 +10415,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -10437,7 +10437,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>23.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -10448,7 +10448,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>5.870000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -10459,7 +10459,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>86.81999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -10470,7 +10470,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>78.47000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -10481,7 +10481,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -10492,7 +10492,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -10503,7 +10503,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>39</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -10514,7 +10514,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>1436</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -10525,7 +10525,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>8687</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -10536,7 +10536,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -10547,7 +10547,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -10558,7 +10558,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -10569,7 +10569,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>5.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -10580,7 +10580,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>136.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -10624,7 +10624,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>107.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -10635,7 +10635,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>3827.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -10646,7 +10646,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -10657,7 +10657,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -10668,7 +10668,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -10679,7 +10679,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>313</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -10690,7 +10690,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>578.4400000000001</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -10723,7 +10723,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -10734,7 +10734,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>1325.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -10745,7 +10745,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>60.71000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -10778,7 +10778,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -10789,7 +10789,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -10800,7 +10800,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>59.89999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -10811,7 +10811,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -10833,7 +10833,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -10844,7 +10844,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -10855,7 +10855,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>28.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -10866,7 +10866,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -10877,7 +10877,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -10888,7 +10888,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>3821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -10899,7 +10899,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>831</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -10910,7 +10910,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>7081.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -10921,7 +10921,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -10932,7 +10932,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -10943,7 +10943,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -10954,7 +10954,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>93</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -10965,7 +10965,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>1313.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -10976,7 +10976,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -10987,7 +10987,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -10998,7 +10998,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -11009,7 +11009,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>1269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -11020,7 +11020,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>1549.25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/irena_cap_summary.xlsx
+++ b/irena_cap_summary.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Solar photovoltaic" sheetId="1" r:id="rId1"/>
-    <sheet name="Pumped storage" sheetId="2" r:id="rId2"/>
+    <sheet name="Mixed Hydro Plants" sheetId="1" r:id="rId1"/>
+    <sheet name="Offshore wind energy" sheetId="2" r:id="rId2"/>
     <sheet name="Renewable hydropower" sheetId="3" r:id="rId3"/>
     <sheet name="Onshore wind energy" sheetId="4" r:id="rId4"/>
-    <sheet name="Mixed Hydro Plants" sheetId="5" r:id="rId5"/>
-    <sheet name="Concentrated solar power" sheetId="6" r:id="rId6"/>
-    <sheet name="Offshore wind energy" sheetId="7" r:id="rId7"/>
+    <sheet name="Concentrated solar power" sheetId="5" r:id="rId5"/>
+    <sheet name="Pumped storage" sheetId="6" r:id="rId6"/>
+    <sheet name="Solar photovoltaic" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -492,7 +492,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -503,7 +503,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>16.02</v>
+        <v>27.63000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -514,7 +514,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>67.8</v>
+        <v>827.8900000000003</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -525,7 +525,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>848.28</v>
+        <v>400.8699999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -536,7 +536,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>1283</v>
+        <v>812.8899999999994</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -558,7 +558,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -569,7 +569,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>1004.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -580,7 +580,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -591,7 +591,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>2514.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -602,7 +602,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -624,7 +624,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -635,7 +635,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>1004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -646,7 +646,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>43.95000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -657,7 +657,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>275.4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -679,7 +679,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -690,7 +690,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>47.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -701,7 +701,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -712,7 +712,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -734,7 +734,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>1726.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -745,7 +745,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>346.4200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -767,7 +767,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -778,7 +778,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -789,7 +789,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -800,7 +800,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>775.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -811,7 +811,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>517.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -844,7 +844,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -855,7 +855,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -866,7 +866,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>123.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -877,7 +877,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -888,7 +888,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -899,7 +899,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -910,7 +910,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -921,7 +921,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>5408.63</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -943,7 +943,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -954,7 +954,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>1031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -965,7 +965,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>6093.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -976,7 +976,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>4586.93</v>
+        <v>85.59999999999945</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -987,7 +987,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>114</v>
+        <v>745</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -998,7 +998,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>1942</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1009,7 +1009,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>15948</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>21218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1031,7 +1031,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>14559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1042,7 +1042,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>699</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1053,7 +1053,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1064,7 +1064,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1075,7 +1075,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>2402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1130,7 +1130,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>1781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1174,7 +1174,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1185,7 +1185,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>1.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1196,7 +1196,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>37.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>3558</v>
+        <v>157.6100000000001</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>15309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>2693.279999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>68.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1383,7 +1383,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>23.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>5.870000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>86.81999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>78.47000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1427,7 +1427,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>1436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>8687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1504,7 +1504,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>5.9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>136.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1559,7 +1559,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>2.949999999999989</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>107.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>3827.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1592,7 +1592,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>617</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>431.9000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>313</v>
+        <v>673.0999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>578.4400000000001</v>
+        <v>1042.4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>1325.9</v>
+        <v>278.25</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>60.71000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1735,7 +1735,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>59.89999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1801,7 +1801,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>28.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>3821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>7081.01</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>1313.15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>16</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>1269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1966,7 +1966,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>1549.25</v>
+        <v>1467</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2056,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>1307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2078,7 +2078,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>196.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2089,7 +2089,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>515.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2100,7 +2100,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1541.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2111,7 +2111,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2221,7 +2221,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2232,7 +2232,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2254,7 +2254,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>24.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2276,7 +2276,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2287,7 +2287,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>373.4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2298,7 +2298,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>444.5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>403.1999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2320,7 +2320,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>429.75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2408,7 +2408,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2419,7 +2419,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>5.699999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2441,7 +2441,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>1727.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2485,7 +2485,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>0.03999999999996362</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2496,7 +2496,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>4654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2507,7 +2507,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2518,7 +2518,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2529,7 +2529,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2540,7 +2540,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2672,7 +2672,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2694,7 +2694,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>3940.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2914,7 +2914,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2958,7 +2958,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2969,7 +2969,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2980,7 +2980,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3013,7 +3013,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>1366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3057,7 +3057,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3134,7 +3134,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3145,7 +3145,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3178,7 +3178,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>91.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3211,7 +3211,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3222,7 +3222,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3288,7 +3288,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3321,7 +3321,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>2418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3332,7 +3332,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3343,7 +3343,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3354,7 +3354,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>831</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3365,7 +3365,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3376,7 +3376,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3387,7 +3387,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3398,7 +3398,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3431,7 +3431,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3453,7 +3453,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3464,7 +3464,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3475,7 +3475,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6528,7 +6528,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>3937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6539,7 +6539,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>27.63000000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>827.8900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6561,7 +6561,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>400.8699999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6572,7 +6572,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>812.8899999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6638,7 +6638,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6693,7 +6693,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>275.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6968,7 +6968,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>5408.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7012,7 +7012,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>85.59999999999945</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7023,7 +7023,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7034,7 +7034,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7045,7 +7045,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7078,7 +7078,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7243,7 +7243,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>3001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7254,7 +7254,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7265,7 +7265,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>157.6100000000001</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7276,7 +7276,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1.350000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7518,7 +7518,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>1326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -7551,7 +7551,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -7573,7 +7573,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -7584,7 +7584,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -7595,7 +7595,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>2.949999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -7628,7 +7628,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -7639,7 +7639,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>431.9000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -7661,7 +7661,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>673.0999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -7672,7 +7672,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>1042.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -7716,7 +7716,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>278.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -7727,7 +7727,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -7848,7 +7848,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>2687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -7870,7 +7870,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>732</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -7881,7 +7881,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1572.01</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -7892,7 +7892,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -7947,7 +7947,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -7958,7 +7958,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>9288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -7969,7 +7969,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -8002,7 +8002,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>1467</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8092,7 +8092,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8125,7 +8125,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8147,7 +8147,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>864</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8257,7 +8257,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8268,7 +8268,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8290,7 +8290,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8477,7 +8477,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1727.66</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8521,7 +8521,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>0.03999999999996362</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8532,7 +8532,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8543,7 +8543,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>701</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8554,7 +8554,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8730,7 +8730,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8752,7 +8752,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>3940.38</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8774,7 +8774,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>4.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8785,7 +8785,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>1.350000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8862,7 +8862,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>760</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8917,7 +8917,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8950,7 +8950,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -9082,7 +9082,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -9093,7 +9093,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9126,7 +9126,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -9214,7 +9214,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -9236,7 +9236,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -9247,7 +9247,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -9258,7 +9258,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -9324,7 +9324,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -9357,7 +9357,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9368,7 +9368,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9379,7 +9379,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>732</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9390,7 +9390,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>1572.01</v>
+        <v>831</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9401,7 +9401,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -9467,7 +9467,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9489,7 +9489,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9500,7 +9500,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9511,7 +9511,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -9546,7 +9546,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9557,7 +9557,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9568,7 +9568,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9579,7 +9579,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>848.28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9590,7 +9590,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9612,7 +9612,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9623,7 +9623,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>196.5</v>
+        <v>1004.6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9634,7 +9634,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>515.5</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9645,7 +9645,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>1541.9</v>
+        <v>2514.8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9678,7 +9678,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9689,7 +9689,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9700,7 +9700,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>43.95000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9733,7 +9733,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9744,7 +9744,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9755,7 +9755,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9766,7 +9766,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9777,7 +9777,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9788,7 +9788,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1726.41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9799,7 +9799,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>346.4200000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9821,7 +9821,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>49.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9832,7 +9832,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>373.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9843,7 +9843,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>444.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9854,7 +9854,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>403.1999999999999</v>
+        <v>775.11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9865,7 +9865,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>429.75</v>
+        <v>517.89</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9898,7 +9898,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9909,7 +9909,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9920,7 +9920,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9931,7 +9931,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9942,7 +9942,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9953,7 +9953,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>26.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9964,7 +9964,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>5.699999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9975,7 +9975,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9986,7 +9986,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9997,7 +9997,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -10008,7 +10008,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -10019,7 +10019,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>6093.52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -10030,7 +10030,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>4586.93</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -10041,7 +10041,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -10052,7 +10052,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -10063,7 +10063,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>15948</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -10074,7 +10074,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>3203</v>
+        <v>21218</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -10085,7 +10085,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>4464</v>
+        <v>14559</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -10107,7 +10107,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -10118,7 +10118,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -10129,7 +10129,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -10140,7 +10140,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -10173,7 +10173,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -10184,7 +10184,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -10195,7 +10195,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -10217,7 +10217,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>25.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -10228,7 +10228,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -10239,7 +10239,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -10250,7 +10250,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>37.84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -10261,7 +10261,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -10272,7 +10272,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -10283,7 +10283,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -10294,7 +10294,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>15309</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -10305,7 +10305,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2693.279999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -10349,7 +10349,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -10360,7 +10360,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -10393,7 +10393,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -10404,7 +10404,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -10415,7 +10415,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -10437,7 +10437,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -10448,7 +10448,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>5.870000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -10459,7 +10459,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>86.81999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -10470,7 +10470,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>78.47000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -10481,7 +10481,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -10492,7 +10492,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -10503,7 +10503,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>228</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -10514,7 +10514,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>129</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -10525,7 +10525,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>2143</v>
+        <v>8687</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -10536,7 +10536,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -10547,7 +10547,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -10558,7 +10558,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -10569,7 +10569,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -10580,7 +10580,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>136.7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -10624,7 +10624,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>107.78</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -10635,7 +10635,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>3827.96</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -10646,7 +10646,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -10657,7 +10657,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -10668,7 +10668,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -10679,7 +10679,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -10690,7 +10690,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>23</v>
+        <v>578.4400000000001</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -10723,7 +10723,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -10734,7 +10734,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1325.9</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -10745,7 +10745,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>60.71000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -10778,7 +10778,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -10789,7 +10789,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>514</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -10800,7 +10800,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>59.89999999999998</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -10811,7 +10811,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -10833,7 +10833,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -10844,7 +10844,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -10855,7 +10855,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -10866,7 +10866,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -10877,7 +10877,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -10888,7 +10888,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -10899,7 +10899,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>831</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -10910,7 +10910,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>7081.01</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -10921,7 +10921,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -10932,7 +10932,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -10943,7 +10943,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>141</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -10954,7 +10954,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -10965,7 +10965,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1313.15</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -10976,7 +10976,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -10987,7 +10987,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -10998,7 +10998,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -11009,7 +11009,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -11020,7 +11020,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1549.25</v>
       </c>
     </row>
   </sheetData>

--- a/irena_cap_summary.xlsx
+++ b/irena_cap_summary.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Mixed Hydro Plants" sheetId="1" r:id="rId1"/>
-    <sheet name="Offshore wind energy" sheetId="2" r:id="rId2"/>
-    <sheet name="Renewable hydropower" sheetId="3" r:id="rId3"/>
-    <sheet name="Onshore wind energy" sheetId="4" r:id="rId4"/>
-    <sheet name="Concentrated solar power" sheetId="5" r:id="rId5"/>
-    <sheet name="Pumped storage" sheetId="6" r:id="rId6"/>
-    <sheet name="Solar photovoltaic" sheetId="7" r:id="rId7"/>
+    <sheet name="Pumped storage" sheetId="1" r:id="rId1"/>
+    <sheet name="Renewable hydropower" sheetId="2" r:id="rId2"/>
+    <sheet name="Offshore wind energy" sheetId="3" r:id="rId3"/>
+    <sheet name="Solar photovoltaic" sheetId="4" r:id="rId4"/>
+    <sheet name="Onshore wind energy" sheetId="5" r:id="rId5"/>
+    <sheet name="Mixed Hydro Plants" sheetId="6" r:id="rId6"/>
+    <sheet name="Concentrated solar power" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -492,7 +492,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>3937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -503,7 +503,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>27.63000000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -514,7 +514,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>827.8900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -525,7 +525,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>400.8699999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -536,7 +536,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>812.8899999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -547,7 +547,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -580,7 +580,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -602,7 +602,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>149</v>
+        <v>864</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -657,7 +657,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>275.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -712,7 +712,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -745,7 +745,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>5408.63</v>
+        <v>1727.66</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -976,7 +976,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>85.59999999999945</v>
+        <v>0.03999999999996362</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -987,7 +987,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>745</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -998,7 +998,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>331</v>
+        <v>701</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1009,7 +1009,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1042,7 +1042,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1185,7 +1185,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>3001</v>
+        <v>3940.38</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>157.6100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>760</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>1326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>308</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1559,7 +1559,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>2.949999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1592,7 +1592,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>431.9000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>673.0999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>1042.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>278.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>2687</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>831</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>303</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>9288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1966,7 +1966,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>1467</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +2001,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2012,7 +2012,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>158.4099999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>267.9200000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2034,7 +2034,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>353.9400000000005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2045,7 +2045,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>684.5599999999995</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2056,7 +2056,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2078,7 +2078,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>196.5</v>
+        <v>1.900000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2089,7 +2089,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>515.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2100,7 +2100,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>1541.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2111,7 +2111,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2122,7 +2122,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>968</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2133,7 +2133,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2144,7 +2144,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2155,7 +2155,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>159.3499999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2166,7 +2166,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2199,7 +2199,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>65.79999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2210,7 +2210,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2221,7 +2221,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>952</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2232,7 +2232,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2254,7 +2254,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2265,7 +2265,7 @@
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1.710000000000036</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2276,7 +2276,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>49.95</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2287,7 +2287,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>373.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2298,7 +2298,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>444.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>403.1999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2320,7 +2320,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>429.75</v>
+        <v>0.3799999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2331,7 +2331,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2342,7 +2342,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2353,7 +2353,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2375,7 +2375,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2386,7 +2386,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2397,7 +2397,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2408,7 +2408,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>26.3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2419,7 +2419,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>5.699999999999999</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2441,7 +2441,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>17646</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2463,7 +2463,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2474,7 +2474,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>259.5400000000009</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2485,7 +2485,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>259.3099999999977</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2496,7 +2496,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2507,7 +2507,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2518,7 +2518,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2529,7 +2529,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>3203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2540,7 +2540,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>4464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2573,7 +2573,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2584,7 +2584,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2595,7 +2595,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2606,7 +2606,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2617,7 +2617,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2628,7 +2628,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2639,7 +2639,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2650,7 +2650,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2661,7 +2661,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2672,7 +2672,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>25.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2705,7 +2705,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.2299999999999898</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>13389</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2727,7 +2727,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2738,7 +2738,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2749,7 +2749,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>652</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2760,7 +2760,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>576.1000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2782,7 +2782,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2793,7 +2793,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>10.69000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2859,7 +2859,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2892,7 +2892,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.7800000000000011</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2903,7 +2903,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.1900000000000048</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.1999999999999957</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2936,7 +2936,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2958,7 +2958,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2969,7 +2969,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2980,7 +2980,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>2143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2991,7 +2991,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>26766</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3002,7 +3002,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3013,7 +3013,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>2.3</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3024,7 +3024,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3035,7 +3035,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>509</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3057,7 +3057,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3068,7 +3068,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3079,7 +3079,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>12.50999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3101,7 +3101,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3112,7 +3112,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>50.09999999999991</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3123,7 +3123,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3134,7 +3134,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>388.9000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3145,7 +3145,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>23</v>
+        <v>51.59000000000015</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3156,7 +3156,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3167,7 +3167,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3178,7 +3178,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>25.44999999999982</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3211,7 +3211,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3233,7 +3233,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3244,7 +3244,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3255,7 +3255,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>5.700000000000045</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3266,7 +3266,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>843</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3277,7 +3277,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3288,7 +3288,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3299,7 +3299,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3310,7 +3310,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>55.72000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3321,7 +3321,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>12607</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3332,7 +3332,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3343,7 +3343,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3354,7 +3354,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>527.5599999999995</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3376,7 +3376,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>13</v>
+        <v>16230</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3387,7 +3387,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3398,7 +3398,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3420,7 +3420,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3431,7 +3431,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3442,7 +3442,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3453,7 +3453,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3464,7 +3464,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3475,7 +3475,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +3510,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>7676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3521,7 +3521,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>158.4099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3532,7 +3532,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>267.9200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3543,7 +3543,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>353.9400000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3554,7 +3554,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>684.5599999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3576,7 +3576,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3587,7 +3587,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>1.900000000000006</v>
+        <v>196.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3598,7 +3598,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>515.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3609,7 +3609,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1541.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3620,7 +3620,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3631,7 +3631,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3642,7 +3642,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3664,7 +3664,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>159.3499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>1784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3697,7 +3697,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3708,7 +3708,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>65.79999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3719,7 +3719,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3730,7 +3730,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3741,7 +3741,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3752,7 +3752,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3774,7 +3774,7 @@
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>1.710000000000036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>6.88</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3796,7 +3796,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>373.4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>444.5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3818,7 +3818,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>403.1999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3829,7 +3829,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.3799999999999999</v>
+        <v>429.75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3840,7 +3840,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3851,7 +3851,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3862,7 +3862,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3895,7 +3895,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>2882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3906,7 +3906,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3917,7 +3917,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>120</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3928,7 +3928,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>85.5</v>
+        <v>5.699999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3939,7 +3939,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3950,7 +3950,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>17646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3983,7 +3983,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>259.5400000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>259.3099999999977</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4005,7 +4005,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>4086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4016,7 +4016,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4027,7 +4027,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4038,7 +4038,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4049,7 +4049,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4060,7 +4060,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>2373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4071,7 +4071,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4093,7 +4093,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4115,7 +4115,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4126,7 +4126,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4137,7 +4137,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4148,7 +4148,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4159,7 +4159,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4170,7 +4170,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4181,7 +4181,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4192,7 +4192,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>0.2299999999999898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4225,7 +4225,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>13389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4236,7 +4236,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4247,7 +4247,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4258,7 +4258,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4269,7 +4269,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>576.1000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4280,7 +4280,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>1513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4291,7 +4291,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4302,7 +4302,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>10.69000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4335,7 +4335,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4346,7 +4346,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4368,7 +4368,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4390,7 +4390,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4401,7 +4401,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0.7800000000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4412,7 +4412,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0.1900000000000048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4434,7 +4434,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>0.1999999999999957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4445,7 +4445,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4467,7 +4467,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4478,7 +4478,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4489,7 +4489,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4500,7 +4500,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>26766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4511,7 +4511,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>1145</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>1572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4544,7 +4544,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>1654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4555,7 +4555,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4566,7 +4566,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4577,7 +4577,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4588,7 +4588,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4599,7 +4599,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>12.50999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4610,7 +4610,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>3918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4621,7 +4621,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>50.09999999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4632,7 +4632,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>388.9000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4654,7 +4654,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>51.59000000000015</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4665,7 +4665,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>6120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4676,7 +4676,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4687,7 +4687,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>25.44999999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4720,7 +4720,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>1596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4753,7 +4753,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4764,7 +4764,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>5.700000000000045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4775,7 +4775,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4786,7 +4786,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4797,7 +4797,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4808,7 +4808,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4819,7 +4819,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>55.72000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4830,7 +4830,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>12607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4841,7 +4841,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4852,7 +4852,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4863,7 +4863,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>527.5599999999995</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4885,7 +4885,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>16230</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4896,7 +4896,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4907,7 +4907,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4918,7 +4918,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4929,7 +4929,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4940,7 +4940,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>3636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4951,7 +4951,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4962,7 +4962,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4973,7 +4973,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4984,7 +4984,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>230</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5019,7 +5019,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5030,7 +5030,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>775.22</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5041,7 +5041,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>190.61</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>1472.9</v>
+        <v>848.28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5063,7 +5063,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>735.3899999999999</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5074,7 +5074,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5085,7 +5085,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>153</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5096,7 +5096,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>548.5</v>
+        <v>1004.6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5107,7 +5107,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>748.5</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5118,7 +5118,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>973.8200000000002</v>
+        <v>2514.8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5140,7 +5140,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5151,7 +5151,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5162,7 +5162,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>211</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5173,7 +5173,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>4.120000000000005</v>
+        <v>43.95000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5195,7 +5195,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5206,7 +5206,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>73</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5217,7 +5217,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>339</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5228,7 +5228,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>370.3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5239,7 +5239,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5250,7 +5250,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5261,7 +5261,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>191</v>
+        <v>1726.41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>68</v>
+        <v>346.4200000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5283,7 +5283,7 @@
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>58.41000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5294,7 +5294,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>2340.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5305,7 +5305,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>364.4199999999996</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5316,7 +5316,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>229.4900000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5327,7 +5327,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>871.9400000000001</v>
+        <v>775.11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5338,7 +5338,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>728.2399999999998</v>
+        <v>517.89</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5360,7 +5360,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5371,7 +5371,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>77</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>192</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5393,7 +5393,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>88.69999999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>802.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>1428.2</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5470,7 +5470,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>652</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>5222</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5492,7 +5492,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>4386.18</v>
+        <v>6093.52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5503,7 +5503,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>7081.669999999998</v>
+        <v>4586.93</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5514,7 +5514,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>6095</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5525,7 +5525,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>12153</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5536,7 +5536,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>8575</v>
+        <v>15948</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5547,7 +5547,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>14474</v>
+        <v>21218</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5558,7 +5558,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>13140</v>
+        <v>14559</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5569,7 +5569,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5580,7 +5580,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>807</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5602,7 +5602,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>793</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5613,7 +5613,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>2022</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5635,7 +5635,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5646,7 +5646,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>276</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5657,7 +5657,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5668,7 +5668,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5679,7 +5679,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>116.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5690,7 +5690,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>351.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>897.1</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5712,7 +5712,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>1060.75</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5723,7 +5723,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>1848.71</v>
+        <v>37.84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5734,7 +5734,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>363</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5745,7 +5745,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>1272</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5756,7 +5756,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>4159</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5767,7 +5767,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>3343</v>
+        <v>15309</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5778,7 +5778,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>1702.459999999999</v>
+        <v>2693.279999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5789,7 +5789,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5800,7 +5800,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5811,7 +5811,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5822,7 +5822,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>38.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5833,7 +5833,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>9.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5855,7 +5855,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5866,7 +5866,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>132</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5877,7 +5877,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>303</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5888,7 +5888,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5899,7 +5899,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>20.9</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5921,7 +5921,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>8.829999999999998</v>
+        <v>5.870000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5932,7 +5932,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>20.06</v>
+        <v>86.81999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5943,7 +5943,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>102.21</v>
+        <v>78.47000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5954,7 +5954,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>447</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5965,7 +5965,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>777</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5976,7 +5976,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>785</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5987,7 +5987,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>1025</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5998,7 +5998,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>1066</v>
+        <v>8687</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6009,7 +6009,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6031,7 +6031,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>157.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6042,7 +6042,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>442.0000000000001</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6053,7 +6053,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>3110</v>
+        <v>136.7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6064,7 +6064,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6075,7 +6075,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6086,7 +6086,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6097,7 +6097,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>3778</v>
+        <v>107.78</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6108,7 +6108,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>1380.69</v>
+        <v>3827.96</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6119,7 +6119,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6141,7 +6141,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>2732</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6152,7 +6152,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>1138.84</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6163,7 +6163,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>278.9099999999999</v>
+        <v>578.4400000000001</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6185,7 +6185,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -6196,7 +6196,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>388</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -6207,7 +6207,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>2633.52</v>
+        <v>1325.9</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6218,7 +6218,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>60.71000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -6240,7 +6240,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -6251,7 +6251,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -6262,7 +6262,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>514</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>59.89999999999998</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -6284,7 +6284,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -6317,7 +6317,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>0.3499999999999996</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>2206</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6350,7 +6350,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>7712</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>10775</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>2245</v>
+        <v>831</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>4145.84</v>
+        <v>7081.01</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>196</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>1354</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>3752</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>3879</v>
+        <v>1313.15</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>27</v>
+        <v>1549.25</v>
       </c>
     </row>
   </sheetData>
@@ -6528,7 +6528,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6539,7 +6539,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>775.22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>190.61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6561,7 +6561,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1472.9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6572,7 +6572,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>735.3899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6583,7 +6583,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6594,7 +6594,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6605,7 +6605,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>548.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6616,7 +6616,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>748.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6627,7 +6627,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>973.8200000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6649,7 +6649,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6660,7 +6660,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6671,7 +6671,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6682,7 +6682,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>4.120000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6704,7 +6704,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6715,7 +6715,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6726,7 +6726,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6737,7 +6737,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>370.3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6748,7 +6748,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6759,7 +6759,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6770,7 +6770,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6781,7 +6781,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6792,7 +6792,7 @@
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>58.41000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6803,7 +6803,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2340.07</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6814,7 +6814,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>364.4199999999996</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6825,7 +6825,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>229.4900000000002</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6836,7 +6836,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>871.9400000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6847,7 +6847,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>728.2399999999998</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6869,7 +6869,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6880,7 +6880,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6891,7 +6891,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6902,7 +6902,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6913,7 +6913,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6924,7 +6924,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6935,7 +6935,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>88.69999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6946,7 +6946,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>802.3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6957,7 +6957,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1428.2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6968,7 +6968,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6979,7 +6979,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>652</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6990,7 +6990,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7001,7 +7001,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>4386.18</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7012,7 +7012,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>7081.669999999998</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7023,7 +7023,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7034,7 +7034,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7045,7 +7045,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7056,7 +7056,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>14474</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7067,7 +7067,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>13140</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7078,7 +7078,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7089,7 +7089,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7100,7 +7100,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>807</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7111,7 +7111,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>793</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7122,7 +7122,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7144,7 +7144,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7155,7 +7155,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7166,7 +7166,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7188,7 +7188,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7199,7 +7199,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7210,7 +7210,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>897.1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7221,7 +7221,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1060.75</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7232,7 +7232,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1848.71</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7243,7 +7243,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7254,7 +7254,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7265,7 +7265,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>4.72</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7276,7 +7276,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>1.350000000000001</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7287,7 +7287,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1702.459999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7298,7 +7298,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7309,7 +7309,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7320,7 +7320,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7331,7 +7331,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>38.17</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7342,7 +7342,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7364,7 +7364,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7375,7 +7375,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7386,7 +7386,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7397,7 +7397,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7408,7 +7408,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7419,7 +7419,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -7430,7 +7430,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>8.829999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -7441,7 +7441,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -7452,7 +7452,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>102.21</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -7463,7 +7463,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -7474,7 +7474,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -7485,7 +7485,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>785</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -7496,7 +7496,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7507,7 +7507,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7518,7 +7518,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -7529,7 +7529,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -7540,7 +7540,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>157.7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -7551,7 +7551,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>442.0000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -7562,7 +7562,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -7573,7 +7573,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -7584,7 +7584,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -7595,7 +7595,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>987</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -7606,7 +7606,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -7617,7 +7617,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1380.69</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -7628,7 +7628,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -7639,7 +7639,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>981</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -7650,7 +7650,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -7661,7 +7661,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1138.84</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -7672,7 +7672,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>278.9099999999999</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -7694,7 +7694,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -7705,7 +7705,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>388</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -7716,7 +7716,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2633.52</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -7727,7 +7727,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -7749,7 +7749,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -7782,7 +7782,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -7826,7 +7826,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -7837,7 +7837,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.3499999999999996</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -7848,7 +7848,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -7859,7 +7859,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -7870,7 +7870,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>732</v>
+        <v>10775</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -7881,7 +7881,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>1572.01</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -7892,7 +7892,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>4145.84</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -7903,7 +7903,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -7914,7 +7914,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -7925,7 +7925,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -7936,7 +7936,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -7947,7 +7947,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -7958,7 +7958,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -7969,7 +7969,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -7980,7 +7980,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -7991,7 +7991,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -8002,7 +8002,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -8037,7 +8037,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8048,7 +8048,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>27.63000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8059,7 +8059,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>827.8900000000003</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8070,7 +8070,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>400.8699999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8081,7 +8081,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>812.8899999999994</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8092,7 +8092,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>1307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8125,7 +8125,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8147,7 +8147,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>864</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8202,7 +8202,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>275.4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8257,7 +8257,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>1145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8268,7 +8268,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8290,7 +8290,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>24.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8477,7 +8477,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>1727.66</v>
+        <v>5408.63</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8521,7 +8521,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>0.03999999999996362</v>
+        <v>85.59999999999945</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8532,7 +8532,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>4654</v>
+        <v>745</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8543,7 +8543,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>701</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8554,7 +8554,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8587,7 +8587,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>699</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8730,7 +8730,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8752,7 +8752,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>3940.38</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8763,7 +8763,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8774,7 +8774,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>157.6100000000001</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8862,7 +8862,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8917,7 +8917,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8950,7 +8950,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -9027,7 +9027,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -9060,7 +9060,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -9082,7 +9082,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>1366</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -9093,7 +9093,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9104,7 +9104,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>2.949999999999989</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -9126,7 +9126,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -9137,7 +9137,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>617</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -9148,7 +9148,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>431.9000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -9170,7 +9170,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>673.0999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -9181,7 +9181,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1042.4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -9214,7 +9214,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>91.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -9225,7 +9225,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>278.25</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -9247,7 +9247,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -9258,7 +9258,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -9324,7 +9324,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -9357,7 +9357,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>2418</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9368,7 +9368,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9379,7 +9379,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9390,7 +9390,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9401,7 +9401,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>41</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -9456,7 +9456,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9467,7 +9467,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>316</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9478,7 +9478,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9489,7 +9489,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9500,7 +9500,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9511,7 +9511,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>93</v>
+        <v>1467</v>
       </c>
     </row>
   </sheetData>
@@ -9546,7 +9546,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9557,7 +9557,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>16.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9568,7 +9568,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>67.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9579,7 +9579,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>848.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9590,7 +9590,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>1283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9612,7 +9612,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9623,7 +9623,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>1004.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9634,7 +9634,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9645,7 +9645,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>2514.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9678,7 +9678,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9689,7 +9689,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>1004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9700,7 +9700,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>43.95000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9733,7 +9733,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9744,7 +9744,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>47.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9755,7 +9755,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9766,7 +9766,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9777,7 +9777,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9788,7 +9788,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>1726.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9799,7 +9799,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>346.4200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9821,7 +9821,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9832,7 +9832,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9843,7 +9843,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9854,7 +9854,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>775.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9865,7 +9865,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>517.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9898,7 +9898,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9909,7 +9909,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9920,7 +9920,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>123.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9931,7 +9931,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9942,7 +9942,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9953,7 +9953,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9964,7 +9964,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9975,7 +9975,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9986,7 +9986,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9997,7 +9997,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -10008,7 +10008,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>1031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -10019,7 +10019,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>6093.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -10030,7 +10030,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>4586.93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -10041,7 +10041,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -10052,7 +10052,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>1942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -10063,7 +10063,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>15948</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -10074,7 +10074,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>21218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -10085,7 +10085,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>14559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -10107,7 +10107,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -10118,7 +10118,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -10129,7 +10129,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>2402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -10140,7 +10140,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -10173,7 +10173,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -10184,7 +10184,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -10195,7 +10195,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>1781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -10228,7 +10228,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -10239,7 +10239,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>1.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -10250,7 +10250,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>37.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -10261,7 +10261,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -10272,7 +10272,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -10283,7 +10283,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>3558</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -10294,7 +10294,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>15309</v>
+        <v>1.350000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -10305,7 +10305,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>2693.279999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -10349,7 +10349,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -10360,7 +10360,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -10393,7 +10393,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -10404,7 +10404,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>68.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -10415,7 +10415,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -10437,7 +10437,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>23.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -10448,7 +10448,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>5.870000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -10459,7 +10459,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>86.81999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -10470,7 +10470,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>78.47000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -10481,7 +10481,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -10492,7 +10492,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -10503,7 +10503,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -10514,7 +10514,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>1436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -10525,7 +10525,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>8687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -10536,7 +10536,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -10547,7 +10547,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -10558,7 +10558,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -10569,7 +10569,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>5.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -10580,7 +10580,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>136.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -10624,7 +10624,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>107.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -10635,7 +10635,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>3827.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -10646,7 +10646,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -10657,7 +10657,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -10668,7 +10668,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -10679,7 +10679,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -10690,7 +10690,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>578.4400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -10723,7 +10723,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -10734,7 +10734,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>1325.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -10745,7 +10745,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>60.71000000000004</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -10778,7 +10778,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -10789,7 +10789,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -10800,7 +10800,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>59.89999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -10811,7 +10811,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -10833,7 +10833,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -10844,7 +10844,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -10855,7 +10855,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>28.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -10866,7 +10866,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -10877,7 +10877,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -10888,7 +10888,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>3821</v>
+        <v>732</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -10899,7 +10899,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>831</v>
+        <v>1572.01</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -10910,7 +10910,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>7081.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -10921,7 +10921,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -10932,7 +10932,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -10943,7 +10943,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -10954,7 +10954,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -10965,7 +10965,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>1313.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -10976,7 +10976,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -10987,7 +10987,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -10998,7 +10998,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -11009,7 +11009,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>1269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -11020,7 +11020,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>1549.25</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/irena_cap_summary.xlsx
+++ b/irena_cap_summary.xlsx
@@ -7,12 +7,12 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Pumped storage" sheetId="1" r:id="rId1"/>
-    <sheet name="Renewable hydropower" sheetId="2" r:id="rId2"/>
-    <sheet name="Offshore wind energy" sheetId="3" r:id="rId3"/>
-    <sheet name="Solar photovoltaic" sheetId="4" r:id="rId4"/>
-    <sheet name="Onshore wind energy" sheetId="5" r:id="rId5"/>
-    <sheet name="Mixed Hydro Plants" sheetId="6" r:id="rId6"/>
+    <sheet name="Solar photovoltaic" sheetId="1" r:id="rId1"/>
+    <sheet name="Onshore wind energy" sheetId="2" r:id="rId2"/>
+    <sheet name="Renewable hydropower" sheetId="3" r:id="rId3"/>
+    <sheet name="Mixed Hydro Plants" sheetId="4" r:id="rId4"/>
+    <sheet name="Pumped storage" sheetId="5" r:id="rId5"/>
+    <sheet name="Offshore wind energy" sheetId="6" r:id="rId6"/>
     <sheet name="Concentrated solar power" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,7 +492,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -503,7 +503,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -514,7 +514,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -525,7 +525,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>848.28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -536,7 +536,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -547,7 +547,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>1307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -558,7 +558,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -569,7 +569,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1004.6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -580,7 +580,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -591,7 +591,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2514.8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -602,7 +602,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -624,7 +624,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -635,7 +635,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -646,7 +646,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>43.95000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -679,7 +679,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -690,7 +690,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -701,7 +701,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -712,7 +712,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>1145</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -723,7 +723,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -734,7 +734,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1726.41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -745,7 +745,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>24.5</v>
+        <v>346.4200000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -767,7 +767,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -778,7 +778,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -789,7 +789,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -800,7 +800,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>775.11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -811,7 +811,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>517.89</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -844,7 +844,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -855,7 +855,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -866,7 +866,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -877,7 +877,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -888,7 +888,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -899,7 +899,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -910,7 +910,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -921,7 +921,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -932,7 +932,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>1727.66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -943,7 +943,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -954,7 +954,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -965,7 +965,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>6093.52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -976,7 +976,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>0.03999999999996362</v>
+        <v>4586.93</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -987,7 +987,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>4654</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -998,7 +998,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>701</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1009,7 +1009,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>15948</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1020,7 +1020,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>21218</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1031,7 +1031,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>14559</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1053,7 +1053,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1064,7 +1064,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1075,7 +1075,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1086,7 +1086,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1119,7 +1119,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1130,7 +1130,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1141,7 +1141,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1174,7 +1174,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1185,7 +1185,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>292</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1196,7 +1196,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>37.84</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1207,7 +1207,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>3940.38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1218,7 +1218,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1229,7 +1229,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1240,7 +1240,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>15309</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1251,7 +1251,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2693.279999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1295,7 +1295,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1306,7 +1306,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1317,7 +1317,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1339,7 +1339,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1350,7 +1350,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1361,7 +1361,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1372,7 +1372,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1383,7 +1383,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1394,7 +1394,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>5.870000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1405,7 +1405,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>196</v>
+        <v>86.81999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1416,7 +1416,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>78.47000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1427,7 +1427,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1438,7 +1438,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1449,7 +1449,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1460,7 +1460,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1471,7 +1471,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>8687</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1482,7 +1482,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1504,7 +1504,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1526,7 +1526,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>136.7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>1366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1570,7 +1570,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>107.78</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>17</v>
+        <v>3827.96</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1592,7 +1592,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1603,7 +1603,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1625,7 +1625,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1636,7 +1636,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>578.4400000000001</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1669,7 +1669,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>91.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1325.9</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1691,7 +1691,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>60.71000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1702,7 +1702,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1724,7 +1724,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1735,7 +1735,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>514</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1746,7 +1746,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>59.89999999999998</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1779,7 +1779,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1801,7 +1801,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>2418</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1823,7 +1823,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1834,7 +1834,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>25</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>41</v>
+        <v>7081.01</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1867,7 +1867,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1889,7 +1889,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1313.15</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1922,7 +1922,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>316</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1933,7 +1933,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1955,7 +1955,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>13</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1966,7 +1966,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>93</v>
+        <v>1549.25</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +2001,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>7676</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2012,7 +2012,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>158.4099999999999</v>
+        <v>775.22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>267.9200000000001</v>
+        <v>190.61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2034,7 +2034,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>353.9400000000005</v>
+        <v>1472.9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2045,7 +2045,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>684.5599999999995</v>
+        <v>735.3899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2056,7 +2056,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>103</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2078,7 +2078,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>1.900000000000006</v>
+        <v>548.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2089,7 +2089,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>748.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2100,7 +2100,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>973.8200000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2111,7 +2111,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2122,7 +2122,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>968</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2133,7 +2133,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2144,7 +2144,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2155,7 +2155,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>159.3499999999999</v>
+        <v>4.120000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2166,7 +2166,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>1784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2177,7 +2177,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2188,7 +2188,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2199,7 +2199,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>65.79999999999995</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2210,7 +2210,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>10.5</v>
+        <v>370.3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2221,7 +2221,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>952</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2232,7 +2232,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2243,7 +2243,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2254,7 +2254,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2265,7 +2265,7 @@
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>1.710000000000036</v>
+        <v>58.41000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2276,7 +2276,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>6.88</v>
+        <v>2340.07</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2287,7 +2287,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>364.4199999999996</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2298,7 +2298,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>229.4900000000002</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>871.9400000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2320,7 +2320,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.3799999999999999</v>
+        <v>728.2399999999998</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2331,7 +2331,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2342,7 +2342,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2353,7 +2353,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2364,7 +2364,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2375,7 +2375,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2386,7 +2386,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>2882</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2397,7 +2397,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>153</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2408,7 +2408,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>120</v>
+        <v>88.69999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2419,7 +2419,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>85.5</v>
+        <v>802.3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1428.2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2441,7 +2441,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>17646</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2452,7 +2452,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>162</v>
+        <v>652</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2463,7 +2463,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>348</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2474,7 +2474,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>259.5400000000009</v>
+        <v>4386.18</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2485,7 +2485,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>259.3099999999977</v>
+        <v>7081.669999999998</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2496,7 +2496,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>4086</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2507,7 +2507,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2518,7 +2518,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>102</v>
+        <v>8575</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2529,7 +2529,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>14474</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2540,7 +2540,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>13140</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2551,7 +2551,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>2373</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2562,7 +2562,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>34</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2573,7 +2573,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>109</v>
+        <v>807</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2584,7 +2584,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>177</v>
+        <v>793</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2595,7 +2595,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>20</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2606,7 +2606,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2617,7 +2617,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2628,7 +2628,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2639,7 +2639,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2650,7 +2650,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2661,7 +2661,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>234</v>
+        <v>116.5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2672,7 +2672,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>351.6</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2683,7 +2683,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>897.1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2694,7 +2694,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1060.75</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2705,7 +2705,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>0.2299999999999898</v>
+        <v>1848.71</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2716,7 +2716,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>13389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2727,7 +2727,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>501</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2738,7 +2738,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>86</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2749,7 +2749,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>652</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2760,7 +2760,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>576.1000000000004</v>
+        <v>1702.459999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2771,7 +2771,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>1513</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2782,7 +2782,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2793,7 +2793,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>10.69000000000005</v>
+        <v>38.17</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2815,7 +2815,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2826,7 +2826,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2848,7 +2848,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2859,7 +2859,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2870,7 +2870,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2881,7 +2881,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>33.3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2892,7 +2892,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0.7800000000000011</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2903,7 +2903,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0.1900000000000048</v>
+        <v>8.829999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2914,7 +2914,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2925,7 +2925,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>0.1999999999999957</v>
+        <v>102.21</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2936,7 +2936,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>37</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2947,7 +2947,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2958,7 +2958,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>785</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2969,7 +2969,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2980,7 +2980,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2991,7 +2991,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>26766</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3002,7 +3002,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>456</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3013,7 +3013,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>1145</v>
+        <v>157.7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3024,7 +3024,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>1572</v>
+        <v>442.0000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3035,7 +3035,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>1654</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3046,7 +3046,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>509</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3057,7 +3057,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>33</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3068,7 +3068,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>18</v>
+        <v>987</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3079,7 +3079,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>28</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3090,7 +3090,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>12.50999999999999</v>
+        <v>1380.69</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3101,7 +3101,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>3918</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3112,7 +3112,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>50.09999999999991</v>
+        <v>981</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3123,7 +3123,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>89</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3134,7 +3134,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>388.9000000000001</v>
+        <v>1138.84</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3145,7 +3145,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>51.59000000000015</v>
+        <v>278.9099999999999</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3156,7 +3156,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>6120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3167,7 +3167,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3178,7 +3178,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>25.44999999999982</v>
+        <v>388</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3189,7 +3189,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2633.52</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3211,7 +3211,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>1596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3222,7 +3222,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3233,7 +3233,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3244,7 +3244,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3255,7 +3255,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>5.700000000000045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3266,7 +3266,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3277,7 +3277,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3288,7 +3288,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3299,7 +3299,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3310,7 +3310,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>55.72000000000003</v>
+        <v>0.3499999999999996</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3321,7 +3321,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>12607</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3332,7 +3332,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>202</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3343,7 +3343,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>466</v>
+        <v>10775</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3354,7 +3354,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>527.5599999999995</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3365,7 +3365,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>4145.84</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3376,7 +3376,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>16230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3387,7 +3387,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3398,7 +3398,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3409,7 +3409,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3420,7 +3420,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>150</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3431,7 +3431,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>3636</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3442,7 +3442,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3453,7 +3453,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>128</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3464,7 +3464,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>186</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3475,7 +3475,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>230</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3510,7 +3510,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3521,7 +3521,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>158.4099999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3532,7 +3532,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>267.9200000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3543,7 +3543,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>353.9400000000005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3554,7 +3554,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>684.5599999999995</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3565,7 +3565,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3576,7 +3576,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3587,7 +3587,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>196.5</v>
+        <v>1.900000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3598,7 +3598,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>515.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3609,7 +3609,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>1541.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3620,7 +3620,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3631,7 +3631,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>968</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3642,7 +3642,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3653,7 +3653,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3664,7 +3664,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>159.3499999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3675,7 +3675,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3697,7 +3697,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3708,7 +3708,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>65.79999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3719,7 +3719,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3730,7 +3730,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>952</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3741,7 +3741,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3752,7 +3752,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3774,7 +3774,7 @@
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1.710000000000036</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3785,7 +3785,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>49.95</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3796,7 +3796,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>373.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>444.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3818,7 +3818,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>403.1999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3829,7 +3829,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>429.75</v>
+        <v>0.3799999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3840,7 +3840,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3851,7 +3851,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3862,7 +3862,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3895,7 +3895,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3906,7 +3906,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3917,7 +3917,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>26.3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3928,7 +3928,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>5.699999999999999</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3939,7 +3939,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3950,7 +3950,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>17646</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3983,7 +3983,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>259.5400000000009</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>259.3099999999977</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4005,7 +4005,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4016,7 +4016,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4027,7 +4027,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4038,7 +4038,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>3203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4049,7 +4049,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>4464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4060,7 +4060,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4071,7 +4071,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4093,7 +4093,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4115,7 +4115,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4126,7 +4126,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4137,7 +4137,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4148,7 +4148,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4159,7 +4159,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4170,7 +4170,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4181,7 +4181,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>25.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4192,7 +4192,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4214,7 +4214,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.2299999999999898</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4225,7 +4225,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>13389</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4236,7 +4236,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4247,7 +4247,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4258,7 +4258,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>652</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4269,7 +4269,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>576.1000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4280,7 +4280,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4291,7 +4291,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4302,7 +4302,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4313,7 +4313,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>10.69000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4335,7 +4335,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4346,7 +4346,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4368,7 +4368,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4390,7 +4390,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4401,7 +4401,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.7800000000000011</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4412,7 +4412,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.1900000000000048</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4434,7 +4434,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.1999999999999957</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4445,7 +4445,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4467,7 +4467,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4478,7 +4478,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4489,7 +4489,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>2143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4500,7 +4500,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>26766</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4511,7 +4511,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>2.3</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4533,7 +4533,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4544,7 +4544,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4555,7 +4555,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>509</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4566,7 +4566,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4577,7 +4577,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4588,7 +4588,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4599,7 +4599,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>12.50999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4610,7 +4610,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4621,7 +4621,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>50.09999999999991</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4632,7 +4632,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4643,7 +4643,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>388.9000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4654,7 +4654,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>23</v>
+        <v>51.59000000000015</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4665,7 +4665,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4676,7 +4676,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4687,7 +4687,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>25.44999999999982</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4720,7 +4720,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4742,7 +4742,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4753,7 +4753,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4764,7 +4764,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>5.700000000000045</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4775,7 +4775,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>843</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4786,7 +4786,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4797,7 +4797,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4808,7 +4808,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4819,7 +4819,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>55.72000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4830,7 +4830,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>12607</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4841,7 +4841,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4852,7 +4852,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4863,7 +4863,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>527.5599999999995</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4885,7 +4885,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>13</v>
+        <v>16230</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4896,7 +4896,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4907,7 +4907,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4918,7 +4918,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4929,7 +4929,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4940,7 +4940,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4951,7 +4951,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4962,7 +4962,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4973,7 +4973,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4984,7 +4984,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5019,7 +5019,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5030,7 +5030,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>16.02</v>
+        <v>27.63000000000011</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5041,7 +5041,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>67.8</v>
+        <v>827.8900000000003</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>848.28</v>
+        <v>400.8699999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5063,7 +5063,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>1283</v>
+        <v>812.8899999999994</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5085,7 +5085,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5096,7 +5096,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>1004.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5107,7 +5107,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5118,7 +5118,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>2514.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5129,7 +5129,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5151,7 +5151,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5162,7 +5162,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>1004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5173,7 +5173,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>43.95000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5184,7 +5184,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>275.4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5206,7 +5206,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5217,7 +5217,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>47.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5228,7 +5228,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5239,7 +5239,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5250,7 +5250,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5261,7 +5261,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>1726.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5272,7 +5272,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>346.4200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5294,7 +5294,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5305,7 +5305,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5316,7 +5316,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5327,7 +5327,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>775.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5338,7 +5338,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>517.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5371,7 +5371,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5382,7 +5382,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5393,7 +5393,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>123.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5404,7 +5404,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5415,7 +5415,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5426,7 +5426,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5437,7 +5437,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5448,7 +5448,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5459,7 +5459,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>7</v>
+        <v>5408.63</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5470,7 +5470,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5481,7 +5481,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>1031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5492,7 +5492,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>6093.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5503,7 +5503,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>4586.93</v>
+        <v>85.59999999999945</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5514,7 +5514,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>114</v>
+        <v>745</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5525,7 +5525,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>1942</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5536,7 +5536,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>15948</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5547,7 +5547,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>21218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5558,7 +5558,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>14559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5569,7 +5569,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>699</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5580,7 +5580,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5591,7 +5591,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5602,7 +5602,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>2402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5613,7 +5613,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5646,7 +5646,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5657,7 +5657,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5668,7 +5668,7 @@
         <v>2020</v>
       </c>
       <c r="C61">
-        <v>1781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5701,7 +5701,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5712,7 +5712,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>1.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5723,7 +5723,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>37.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5734,7 +5734,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5745,7 +5745,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5756,7 +5756,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>3558</v>
+        <v>157.6100000000001</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5767,7 +5767,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>15309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5778,7 +5778,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>2693.279999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5822,7 +5822,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5833,7 +5833,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5866,7 +5866,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5877,7 +5877,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>68.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5888,7 +5888,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5910,7 +5910,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>23.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5921,7 +5921,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>5.870000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5932,7 +5932,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>86.81999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5943,7 +5943,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>78.47000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5954,7 +5954,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5965,7 +5965,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5976,7 +5976,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5987,7 +5987,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>1436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5998,7 +5998,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>8687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6009,7 +6009,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6031,7 +6031,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6042,7 +6042,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>5.9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6053,7 +6053,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>136.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6064,7 +6064,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6075,7 +6075,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6086,7 +6086,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>2.949999999999989</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6097,7 +6097,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>107.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6108,7 +6108,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>3827.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6119,7 +6119,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>617</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6130,7 +6130,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>431.9000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6141,7 +6141,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6152,7 +6152,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>313</v>
+        <v>673.0999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6163,7 +6163,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>578.4400000000001</v>
+        <v>1042.4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6196,7 +6196,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -6207,7 +6207,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>1325.9</v>
+        <v>278.25</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6218,7 +6218,7 @@
         <v>2020</v>
       </c>
       <c r="C111">
-        <v>60.71000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -6251,7 +6251,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -6262,7 +6262,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>59.89999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -6284,7 +6284,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -6306,7 +6306,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -6317,7 +6317,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -6328,7 +6328,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>28.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>10</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6350,7 +6350,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6361,7 +6361,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>3821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>7081.01</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6394,7 +6394,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6416,7 +6416,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6438,7 +6438,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>1313.15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6449,7 +6449,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>16</v>
+        <v>9288</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6471,7 +6471,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6482,7 +6482,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>1269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6493,7 +6493,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>1549.25</v>
+        <v>1467</v>
       </c>
     </row>
   </sheetData>
@@ -6528,7 +6528,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6539,7 +6539,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>775.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>190.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6561,7 +6561,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>1472.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6572,7 +6572,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>735.3899999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6583,7 +6583,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6594,7 +6594,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6605,7 +6605,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>548.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6616,7 +6616,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>748.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6627,7 +6627,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>973.8200000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6638,7 +6638,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>864</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6649,7 +6649,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6660,7 +6660,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6671,7 +6671,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6682,7 +6682,7 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>4.120000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6704,7 +6704,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6715,7 +6715,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6726,7 +6726,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6737,7 +6737,7 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>370.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6748,7 +6748,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6759,7 +6759,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6770,7 +6770,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6781,7 +6781,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>68</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6792,7 +6792,7 @@
         <v>2020</v>
       </c>
       <c r="C26">
-        <v>58.41000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6803,7 +6803,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>2340.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6814,7 +6814,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>364.4199999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6825,7 +6825,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>229.4900000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6836,7 +6836,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>871.9400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6847,7 +6847,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>728.2399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6869,7 +6869,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6880,7 +6880,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6891,7 +6891,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6902,7 +6902,7 @@
         <v>2020</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6913,7 +6913,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6924,7 +6924,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6935,7 +6935,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>88.69999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6946,7 +6946,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>802.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6957,7 +6957,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>1428.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6968,7 +6968,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>38</v>
+        <v>1727.66</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6979,7 +6979,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6990,7 +6990,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>5222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7001,7 +7001,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>4386.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7012,7 +7012,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>7081.669999999998</v>
+        <v>0.03999999999996362</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7023,7 +7023,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>6095</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7034,7 +7034,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>12153</v>
+        <v>701</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7045,7 +7045,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>8575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7056,7 +7056,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>14474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7067,7 +7067,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>13140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7078,7 +7078,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7089,7 +7089,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7100,7 +7100,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7111,7 +7111,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7122,7 +7122,7 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>2022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7144,7 +7144,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7155,7 +7155,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7166,7 +7166,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7188,7 +7188,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>116.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7199,7 +7199,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>351.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7210,7 +7210,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>897.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7221,7 +7221,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>1060.75</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7232,7 +7232,7 @@
         <v>2020</v>
       </c>
       <c r="C66">
-        <v>1848.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7243,7 +7243,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>363</v>
+        <v>3940.38</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7254,7 +7254,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>1272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7265,7 +7265,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>4159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7276,7 +7276,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>3343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7287,7 +7287,7 @@
         <v>2020</v>
       </c>
       <c r="C71">
-        <v>1702.459999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7298,7 +7298,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7309,7 +7309,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7320,7 +7320,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7331,7 +7331,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>38.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7342,7 +7342,7 @@
         <v>2020</v>
       </c>
       <c r="C76">
-        <v>9.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7353,7 +7353,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>760</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7364,7 +7364,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7375,7 +7375,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7386,7 +7386,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7397,7 +7397,7 @@
         <v>2020</v>
       </c>
       <c r="C81">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7408,7 +7408,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7419,7 +7419,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>20.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -7430,7 +7430,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>8.829999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -7441,7 +7441,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>20.06</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -7452,7 +7452,7 @@
         <v>2020</v>
       </c>
       <c r="C86">
-        <v>102.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -7463,7 +7463,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -7474,7 +7474,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -7485,7 +7485,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -7496,7 +7496,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>1025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7507,7 +7507,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>1066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7518,7 +7518,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -7529,7 +7529,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -7540,7 +7540,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>157.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -7551,7 +7551,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>442.0000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -7562,7 +7562,7 @@
         <v>2020</v>
       </c>
       <c r="C96">
-        <v>3110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -7573,7 +7573,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -7584,7 +7584,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>117</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -7595,7 +7595,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -7606,7 +7606,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>3778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -7617,7 +7617,7 @@
         <v>2020</v>
       </c>
       <c r="C101">
-        <v>1380.69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -7628,7 +7628,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -7639,7 +7639,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -7650,7 +7650,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>2732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -7661,7 +7661,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>1138.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -7672,7 +7672,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>278.9099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -7694,7 +7694,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -7705,7 +7705,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>388</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -7716,7 +7716,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>2633.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -7738,7 +7738,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>735</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -7749,7 +7749,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -7782,7 +7782,7 @@
         <v>2020</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -7815,7 +7815,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -7826,7 +7826,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -7837,7 +7837,7 @@
         <v>2020</v>
       </c>
       <c r="C121">
-        <v>0.3499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -7848,7 +7848,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>2206</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -7859,7 +7859,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>7712</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -7870,7 +7870,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>10775</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -7881,7 +7881,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>2245</v>
+        <v>831</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -7892,7 +7892,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>4145.84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -7903,7 +7903,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -7914,7 +7914,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -7925,7 +7925,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>1354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -7936,7 +7936,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>3752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -7947,7 +7947,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>3879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -7958,7 +7958,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -7969,7 +7969,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -7980,7 +7980,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -7991,7 +7991,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -8002,7 +8002,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>27</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -8037,7 +8037,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>3937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8048,7 +8048,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>27.63000000000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8059,7 +8059,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>827.8900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8070,7 +8070,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>400.8699999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8081,7 +8081,7 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>812.8899999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8114,7 +8114,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>196.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8125,7 +8125,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>515.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8136,7 +8136,7 @@
         <v>2020</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1541.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8147,7 +8147,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8202,7 +8202,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>275.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8312,7 +8312,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8323,7 +8323,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>373.4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8334,7 +8334,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>444.5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8345,7 +8345,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>403.1999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8356,7 +8356,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>429.75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8444,7 +8444,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8455,7 +8455,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>5.699999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8466,7 +8466,7 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8477,7 +8477,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>5408.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8521,7 +8521,7 @@
         <v>2020</v>
       </c>
       <c r="C46">
-        <v>85.59999999999945</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8532,7 +8532,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8543,7 +8543,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8554,7 +8554,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8565,7 +8565,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8576,7 +8576,7 @@
         <v>2020</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8587,7 +8587,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8708,7 +8708,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8752,7 +8752,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>3001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8763,7 +8763,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8774,7 +8774,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>157.6100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8994,7 +8994,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -9005,7 +9005,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -9016,7 +9016,7 @@
         <v>2020</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -9027,7 +9027,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>1326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -9049,7 +9049,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -9060,7 +9060,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -9082,7 +9082,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -9093,7 +9093,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9104,7 +9104,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>2.949999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -9137,7 +9137,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -9148,7 +9148,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>431.9000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -9170,7 +9170,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>673.0999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -9181,7 +9181,7 @@
         <v>2020</v>
       </c>
       <c r="C106">
-        <v>1042.4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -9225,7 +9225,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>278.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -9357,7 +9357,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>2687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9390,7 +9390,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9401,7 +9401,7 @@
         <v>2020</v>
       </c>
       <c r="C126">
-        <v>303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -9412,7 +9412,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -9423,7 +9423,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -9434,7 +9434,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -9445,7 +9445,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -9456,7 +9456,7 @@
         <v>2020</v>
       </c>
       <c r="C131">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9467,7 +9467,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>9288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9478,7 +9478,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9511,7 +9511,7 @@
         <v>2020</v>
       </c>
       <c r="C136">
-        <v>1467</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
